--- a/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
@@ -901,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM1" sqref="AM1:AM1048576"/>
+      <selection pane="topRight" activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +916,7 @@
     <col min="31" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1031,8 +1031,11 @@
       <c r="AL1" s="1">
         <v>43929</v>
       </c>
+      <c r="AM1" s="1">
+        <v>43930</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1147,8 +1150,11 @@
       <c r="AL2">
         <v>1</v>
       </c>
+      <c r="AM2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1263,8 +1269,11 @@
       <c r="AL3">
         <v>2</v>
       </c>
+      <c r="AM3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1379,8 +1388,11 @@
       <c r="AL4">
         <v>0</v>
       </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1495,8 +1507,11 @@
       <c r="AL5">
         <v>0</v>
       </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1611,8 +1626,11 @@
       <c r="AL6">
         <v>0</v>
       </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1727,8 +1745,11 @@
       <c r="AL7">
         <v>0</v>
       </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1843,8 +1864,11 @@
       <c r="AL8">
         <v>0</v>
       </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1959,8 +1983,11 @@
       <c r="AL9">
         <v>0</v>
       </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2075,8 +2102,11 @@
       <c r="AL10">
         <v>0</v>
       </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2191,8 +2221,11 @@
       <c r="AL11">
         <v>0</v>
       </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2307,8 +2340,11 @@
       <c r="AL12">
         <v>0</v>
       </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2423,8 +2459,11 @@
       <c r="AL13">
         <v>0</v>
       </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2539,8 +2578,11 @@
       <c r="AL14">
         <v>0</v>
       </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2655,8 +2697,11 @@
       <c r="AL15">
         <v>0</v>
       </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2771,8 +2816,11 @@
       <c r="AL16">
         <v>1</v>
       </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2887,8 +2935,11 @@
       <c r="AL17">
         <v>0</v>
       </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3003,8 +3054,11 @@
       <c r="AL18">
         <v>0</v>
       </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3119,8 +3173,11 @@
       <c r="AL19">
         <v>0</v>
       </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3235,8 +3292,11 @@
       <c r="AL20">
         <v>0</v>
       </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3351,8 +3411,11 @@
       <c r="AL21">
         <v>0</v>
       </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3467,8 +3530,11 @@
       <c r="AL22">
         <v>0</v>
       </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3583,8 +3649,11 @@
       <c r="AL23">
         <v>0</v>
       </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3699,8 +3768,11 @@
       <c r="AL24">
         <v>0</v>
       </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3814,6 +3886,9 @@
       </c>
       <c r="AL25">
         <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
@@ -901,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM2" sqref="AM2"/>
+      <selection pane="topRight" activeCell="AO1" sqref="AO1:AO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,9 +914,10 @@
     <col min="2" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1034,8 +1035,11 @@
       <c r="AM1" s="1">
         <v>43930</v>
       </c>
+      <c r="AN1" s="1">
+        <v>43931</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1151,10 +1155,13 @@
         <v>1</v>
       </c>
       <c r="AM2">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1270,10 +1277,13 @@
         <v>2</v>
       </c>
       <c r="AM3">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1391,8 +1401,11 @@
       <c r="AM4">
         <v>0</v>
       </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1510,8 +1523,11 @@
       <c r="AM5">
         <v>1</v>
       </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1629,8 +1645,11 @@
       <c r="AM6">
         <v>0</v>
       </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1748,8 +1767,11 @@
       <c r="AM7">
         <v>0</v>
       </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1867,8 +1889,11 @@
       <c r="AM8">
         <v>0</v>
       </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1986,8 +2011,11 @@
       <c r="AM9">
         <v>0</v>
       </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2105,8 +2133,11 @@
       <c r="AM10">
         <v>0</v>
       </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2224,8 +2255,11 @@
       <c r="AM11">
         <v>0</v>
       </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2343,8 +2377,11 @@
       <c r="AM12">
         <v>0</v>
       </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2462,8 +2499,11 @@
       <c r="AM13">
         <v>0</v>
       </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2581,8 +2621,11 @@
       <c r="AM14">
         <v>0</v>
       </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2700,8 +2743,11 @@
       <c r="AM15">
         <v>0</v>
       </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2819,8 +2865,11 @@
       <c r="AM16">
         <v>0</v>
       </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2938,8 +2987,11 @@
       <c r="AM17">
         <v>0</v>
       </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3057,8 +3109,11 @@
       <c r="AM18">
         <v>0</v>
       </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3176,8 +3231,11 @@
       <c r="AM19">
         <v>0</v>
       </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3295,8 +3353,11 @@
       <c r="AM20">
         <v>0</v>
       </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3414,8 +3475,11 @@
       <c r="AM21">
         <v>0</v>
       </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3533,8 +3597,11 @@
       <c r="AM22">
         <v>1</v>
       </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3652,8 +3719,11 @@
       <c r="AM23">
         <v>0</v>
       </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3771,8 +3841,11 @@
       <c r="AM24">
         <v>0</v>
       </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3888,6 +3961,9 @@
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
         <v>0</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
@@ -901,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN25"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO1" sqref="AO1:AO1048576"/>
+      <selection pane="topRight" activeCell="AO25" sqref="AO25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,9 +915,10 @@
     <col min="9" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" customWidth="1"/>
+    <col min="41" max="41" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1038,8 +1039,11 @@
       <c r="AN1" s="1">
         <v>43931</v>
       </c>
+      <c r="AO1" s="1">
+        <v>43932</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1160,8 +1164,11 @@
       <c r="AN2">
         <v>1</v>
       </c>
+      <c r="AO2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1282,8 +1289,11 @@
       <c r="AN3">
         <v>1</v>
       </c>
+      <c r="AO3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1404,8 +1414,11 @@
       <c r="AN4">
         <v>0</v>
       </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1526,8 +1539,11 @@
       <c r="AN5">
         <v>0</v>
       </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1648,8 +1664,11 @@
       <c r="AN6">
         <v>0</v>
       </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1770,8 +1789,11 @@
       <c r="AN7">
         <v>0</v>
       </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1892,8 +1914,11 @@
       <c r="AN8">
         <v>0</v>
       </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2014,8 +2039,11 @@
       <c r="AN9">
         <v>0</v>
       </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2136,8 +2164,11 @@
       <c r="AN10">
         <v>0</v>
       </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2258,8 +2289,11 @@
       <c r="AN11">
         <v>0</v>
       </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2380,8 +2414,11 @@
       <c r="AN12">
         <v>0</v>
       </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2502,8 +2539,11 @@
       <c r="AN13">
         <v>0</v>
       </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2624,8 +2664,11 @@
       <c r="AN14">
         <v>0</v>
       </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2746,8 +2789,11 @@
       <c r="AN15">
         <v>0</v>
       </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2868,8 +2914,11 @@
       <c r="AN16">
         <v>0</v>
       </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2990,8 +3039,11 @@
       <c r="AN17">
         <v>1</v>
       </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3112,8 +3164,11 @@
       <c r="AN18">
         <v>0</v>
       </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3234,8 +3289,11 @@
       <c r="AN19">
         <v>0</v>
       </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3356,8 +3414,11 @@
       <c r="AN20">
         <v>0</v>
       </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3478,8 +3539,11 @@
       <c r="AN21">
         <v>0</v>
       </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3600,8 +3664,11 @@
       <c r="AN22">
         <v>0</v>
       </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3722,8 +3789,11 @@
       <c r="AN23">
         <v>0</v>
       </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3844,8 +3914,11 @@
       <c r="AN24">
         <v>0</v>
       </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3964,6 +4037,9 @@
         <v>0</v>
       </c>
       <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
         <v>0</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
@@ -901,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO25" sqref="AO25"/>
+      <selection pane="topRight" activeCell="AQ24" sqref="AQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +918,7 @@
     <col min="41" max="41" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1042,8 +1042,14 @@
       <c r="AO1" s="1">
         <v>43932</v>
       </c>
+      <c r="AP1" s="1">
+        <v>43933</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>43934</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1167,8 +1173,14 @@
       <c r="AO2">
         <v>4</v>
       </c>
+      <c r="AP2">
+        <v>4</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1292,8 +1304,14 @@
       <c r="AO3">
         <v>3</v>
       </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1417,8 +1435,14 @@
       <c r="AO4">
         <v>0</v>
       </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1566,14 @@
       <c r="AO5">
         <v>0</v>
       </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1667,8 +1697,14 @@
       <c r="AO6">
         <v>0</v>
       </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1792,8 +1828,14 @@
       <c r="AO7">
         <v>0</v>
       </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1917,8 +1959,14 @@
       <c r="AO8">
         <v>0</v>
       </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2042,8 +2090,14 @@
       <c r="AO9">
         <v>0</v>
       </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2167,8 +2221,14 @@
       <c r="AO10">
         <v>0</v>
       </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2292,8 +2352,14 @@
       <c r="AO11">
         <v>0</v>
       </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2417,8 +2483,14 @@
       <c r="AO12">
         <v>0</v>
       </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2542,8 +2614,14 @@
       <c r="AO13">
         <v>0</v>
       </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2667,8 +2745,14 @@
       <c r="AO14">
         <v>0</v>
       </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2792,8 +2876,14 @@
       <c r="AO15">
         <v>0</v>
       </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2917,8 +3007,14 @@
       <c r="AO16">
         <v>0</v>
       </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3042,8 +3138,14 @@
       <c r="AO17">
         <v>0</v>
       </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3167,8 +3269,14 @@
       <c r="AO18">
         <v>0</v>
       </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3292,8 +3400,14 @@
       <c r="AO19">
         <v>0</v>
       </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3417,8 +3531,14 @@
       <c r="AO20">
         <v>0</v>
       </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3542,8 +3662,14 @@
       <c r="AO21">
         <v>0</v>
       </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3667,8 +3793,14 @@
       <c r="AO22">
         <v>0</v>
       </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3792,8 +3924,14 @@
       <c r="AO23">
         <v>0</v>
       </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3917,8 +4055,14 @@
       <c r="AO24">
         <v>0</v>
       </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4040,6 +4184,12 @@
         <v>0</v>
       </c>
       <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
         <v>0</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
@@ -901,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ25"/>
+  <dimension ref="A1:AR25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ24" sqref="AQ24"/>
+      <selection pane="topRight" activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +918,7 @@
     <col min="41" max="41" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1048,8 +1048,11 @@
       <c r="AQ1" s="1">
         <v>43934</v>
       </c>
+      <c r="AR1" s="1">
+        <v>43935</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1179,8 +1182,11 @@
       <c r="AQ2">
         <v>1</v>
       </c>
+      <c r="AR2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1310,8 +1316,11 @@
       <c r="AQ3">
         <v>1</v>
       </c>
+      <c r="AR3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1441,8 +1450,11 @@
       <c r="AQ4">
         <v>0</v>
       </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1572,8 +1584,11 @@
       <c r="AQ5">
         <v>0</v>
       </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1703,8 +1718,11 @@
       <c r="AQ6">
         <v>0</v>
       </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1834,8 +1852,11 @@
       <c r="AQ7">
         <v>1</v>
       </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1965,8 +1986,11 @@
       <c r="AQ8">
         <v>0</v>
       </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2096,8 +2120,11 @@
       <c r="AQ9">
         <v>0</v>
       </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2227,8 +2254,11 @@
       <c r="AQ10">
         <v>0</v>
       </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2358,8 +2388,11 @@
       <c r="AQ11">
         <v>0</v>
       </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2489,8 +2522,11 @@
       <c r="AQ12">
         <v>0</v>
       </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2620,8 +2656,11 @@
       <c r="AQ13">
         <v>0</v>
       </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2751,8 +2790,11 @@
       <c r="AQ14">
         <v>0</v>
       </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2882,8 +2924,11 @@
       <c r="AQ15">
         <v>0</v>
       </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3013,8 +3058,11 @@
       <c r="AQ16">
         <v>0</v>
       </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3144,8 +3192,11 @@
       <c r="AQ17">
         <v>0</v>
       </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3275,8 +3326,11 @@
       <c r="AQ18">
         <v>0</v>
       </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3406,8 +3460,11 @@
       <c r="AQ19">
         <v>0</v>
       </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3537,8 +3594,11 @@
       <c r="AQ20">
         <v>0</v>
       </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3668,8 +3728,11 @@
       <c r="AQ21">
         <v>0</v>
       </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3799,8 +3862,11 @@
       <c r="AQ22">
         <v>0</v>
       </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3930,8 +3996,11 @@
       <c r="AQ23">
         <v>0</v>
       </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4061,8 +4130,11 @@
       <c r="AQ24">
         <v>0</v>
       </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4190,6 +4262,9 @@
         <v>0</v>
       </c>
       <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
         <v>0</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
@@ -901,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR25"/>
+  <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR1" sqref="AR1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT24" sqref="AT24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,9 +916,10 @@
     <col min="31" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" customWidth="1"/>
     <col min="41" max="41" width="10.140625" customWidth="1"/>
+    <col min="44" max="44" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1051,8 +1052,14 @@
       <c r="AR1" s="1">
         <v>43935</v>
       </c>
+      <c r="AS1" s="1">
+        <v>43936</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>43937</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1185,8 +1192,14 @@
       <c r="AR2">
         <v>2</v>
       </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1319,8 +1332,14 @@
       <c r="AR3">
         <v>2</v>
       </c>
+      <c r="AS3">
+        <v>4</v>
+      </c>
+      <c r="AT3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1453,8 +1472,14 @@
       <c r="AR4">
         <v>0</v>
       </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1587,8 +1612,14 @@
       <c r="AR5">
         <v>1</v>
       </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1721,8 +1752,14 @@
       <c r="AR6">
         <v>0</v>
       </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1855,8 +1892,14 @@
       <c r="AR7">
         <v>1</v>
       </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1989,8 +2032,14 @@
       <c r="AR8">
         <v>0</v>
       </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2123,8 +2172,14 @@
       <c r="AR9">
         <v>0</v>
       </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2257,8 +2312,14 @@
       <c r="AR10">
         <v>0</v>
       </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2391,8 +2452,14 @@
       <c r="AR11">
         <v>0</v>
       </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2525,8 +2592,14 @@
       <c r="AR12">
         <v>0</v>
       </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2659,8 +2732,14 @@
       <c r="AR13">
         <v>0</v>
       </c>
+      <c r="AS13">
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2793,8 +2872,14 @@
       <c r="AR14">
         <v>0</v>
       </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2927,8 +3012,14 @@
       <c r="AR15">
         <v>0</v>
       </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3061,8 +3152,14 @@
       <c r="AR16">
         <v>0</v>
       </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3195,8 +3292,14 @@
       <c r="AR17">
         <v>1</v>
       </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3329,8 +3432,14 @@
       <c r="AR18">
         <v>0</v>
       </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3463,8 +3572,14 @@
       <c r="AR19">
         <v>0</v>
       </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3597,8 +3712,14 @@
       <c r="AR20">
         <v>0</v>
       </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3731,8 +3852,14 @@
       <c r="AR21">
         <v>0</v>
       </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3865,8 +3992,14 @@
       <c r="AR22">
         <v>0</v>
       </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3999,8 +4132,14 @@
       <c r="AR23">
         <v>0</v>
       </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4133,8 +4272,14 @@
       <c r="AR24">
         <v>0</v>
       </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4265,6 +4410,12 @@
         <v>0</v>
       </c>
       <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
         <v>0</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
@@ -901,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT25"/>
+  <dimension ref="A1:AV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT24" sqref="AT24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV27" sqref="AV27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +919,7 @@
     <col min="44" max="44" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1058,8 +1058,14 @@
       <c r="AT1" s="1">
         <v>43937</v>
       </c>
+      <c r="AU1" s="1">
+        <v>43938</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>43939</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1198,8 +1204,14 @@
       <c r="AT2">
         <v>5</v>
       </c>
+      <c r="AU2">
+        <v>3</v>
+      </c>
+      <c r="AV2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1338,8 +1350,14 @@
       <c r="AT3">
         <v>3</v>
       </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1478,8 +1496,14 @@
       <c r="AT4">
         <v>0</v>
       </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1642,14 @@
       <c r="AT5">
         <v>1</v>
       </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1758,8 +1788,14 @@
       <c r="AT6">
         <v>0</v>
       </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1898,8 +1934,14 @@
       <c r="AT7">
         <v>0</v>
       </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2038,8 +2080,14 @@
       <c r="AT8">
         <v>0</v>
       </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2178,8 +2226,14 @@
       <c r="AT9">
         <v>0</v>
       </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2318,8 +2372,14 @@
       <c r="AT10">
         <v>0</v>
       </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2458,8 +2518,14 @@
       <c r="AT11">
         <v>0</v>
       </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2598,8 +2664,14 @@
       <c r="AT12">
         <v>0</v>
       </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2738,8 +2810,14 @@
       <c r="AT13">
         <v>0</v>
       </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2878,8 +2956,14 @@
       <c r="AT14">
         <v>1</v>
       </c>
+      <c r="AU14">
+        <v>2</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3018,8 +3102,14 @@
       <c r="AT15">
         <v>0</v>
       </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3158,8 +3248,14 @@
       <c r="AT16">
         <v>0</v>
       </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3298,8 +3394,14 @@
       <c r="AT17">
         <v>0</v>
       </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3438,8 +3540,14 @@
       <c r="AT18">
         <v>0</v>
       </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3578,8 +3686,14 @@
       <c r="AT19">
         <v>0</v>
       </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3718,8 +3832,14 @@
       <c r="AT20">
         <v>0</v>
       </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3858,8 +3978,14 @@
       <c r="AT21">
         <v>0</v>
       </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3998,8 +4124,14 @@
       <c r="AT22">
         <v>0</v>
       </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4138,8 +4270,14 @@
       <c r="AT23">
         <v>0</v>
       </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4278,8 +4416,14 @@
       <c r="AT24">
         <v>0</v>
       </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4416,6 +4560,12 @@
         <v>0</v>
       </c>
       <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
         <v>0</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
@@ -901,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV25"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV27" sqref="AV27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AZ4" sqref="AZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +919,7 @@
     <col min="44" max="44" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1064,8 +1064,17 @@
       <c r="AV1" s="1">
         <v>43939</v>
       </c>
+      <c r="AW1" s="1">
+        <v>43940</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>43941</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>43942</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1210,8 +1219,17 @@
       <c r="AV2">
         <v>2</v>
       </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1356,8 +1374,17 @@
       <c r="AV3">
         <v>1</v>
       </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1502,8 +1529,17 @@
       <c r="AV4">
         <v>0</v>
       </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1648,8 +1684,17 @@
       <c r="AV5">
         <v>0</v>
       </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1794,8 +1839,17 @@
       <c r="AV6">
         <v>0</v>
       </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1940,8 +1994,17 @@
       <c r="AV7">
         <v>0</v>
       </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>2</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2086,8 +2149,17 @@
       <c r="AV8">
         <v>0</v>
       </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2232,8 +2304,17 @@
       <c r="AV9">
         <v>0</v>
       </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2378,8 +2459,17 @@
       <c r="AV10">
         <v>0</v>
       </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2524,8 +2614,17 @@
       <c r="AV11">
         <v>0</v>
       </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2670,8 +2769,17 @@
       <c r="AV12">
         <v>0</v>
       </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2816,8 +2924,17 @@
       <c r="AV13">
         <v>0</v>
       </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2962,8 +3079,17 @@
       <c r="AV14">
         <v>0</v>
       </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>1</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3108,8 +3234,17 @@
       <c r="AV15">
         <v>0</v>
       </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3254,8 +3389,17 @@
       <c r="AV16">
         <v>0</v>
       </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3400,8 +3544,17 @@
       <c r="AV17">
         <v>0</v>
       </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>3</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3546,8 +3699,17 @@
       <c r="AV18">
         <v>0</v>
       </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3692,8 +3854,17 @@
       <c r="AV19">
         <v>0</v>
       </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3838,8 +4009,17 @@
       <c r="AV20">
         <v>0</v>
       </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3984,8 +4164,17 @@
       <c r="AV21">
         <v>0</v>
       </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4130,8 +4319,17 @@
       <c r="AV22">
         <v>0</v>
       </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4276,8 +4474,17 @@
       <c r="AV23">
         <v>0</v>
       </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4422,8 +4629,17 @@
       <c r="AV24">
         <v>0</v>
       </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4566,6 +4782,15 @@
         <v>0</v>
       </c>
       <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
         <v>0</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
@@ -901,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY25"/>
+  <dimension ref="A1:AZ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ4" sqref="AZ4"/>
+      <selection pane="topRight" activeCell="AZ25" sqref="AZ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +919,7 @@
     <col min="44" max="44" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1073,8 +1073,11 @@
       <c r="AY1" s="1">
         <v>43942</v>
       </c>
+      <c r="AZ1" s="1">
+        <v>43943</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1228,8 +1231,11 @@
       <c r="AY2">
         <v>4</v>
       </c>
+      <c r="AZ2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1383,8 +1389,11 @@
       <c r="AY3">
         <v>3</v>
       </c>
+      <c r="AZ3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1538,8 +1547,11 @@
       <c r="AY4">
         <v>0</v>
       </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1693,8 +1705,11 @@
       <c r="AY5">
         <v>0</v>
       </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1848,8 +1863,11 @@
       <c r="AY6">
         <v>0</v>
       </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2003,8 +2021,11 @@
       <c r="AY7">
         <v>0</v>
       </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2158,8 +2179,11 @@
       <c r="AY8">
         <v>0</v>
       </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2313,8 +2337,11 @@
       <c r="AY9">
         <v>0</v>
       </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2468,8 +2495,11 @@
       <c r="AY10">
         <v>0</v>
       </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2623,8 +2653,11 @@
       <c r="AY11">
         <v>0</v>
       </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2778,8 +2811,11 @@
       <c r="AY12">
         <v>0</v>
       </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2933,8 +2969,11 @@
       <c r="AY13">
         <v>2</v>
       </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3088,8 +3127,11 @@
       <c r="AY14">
         <v>0</v>
       </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3243,8 +3285,11 @@
       <c r="AY15">
         <v>0</v>
       </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3398,8 +3443,11 @@
       <c r="AY16">
         <v>0</v>
       </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3553,8 +3601,11 @@
       <c r="AY17">
         <v>0</v>
       </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3708,8 +3759,11 @@
       <c r="AY18">
         <v>0</v>
       </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3863,8 +3917,11 @@
       <c r="AY19">
         <v>0</v>
       </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4018,8 +4075,11 @@
       <c r="AY20">
         <v>0</v>
       </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4173,8 +4233,11 @@
       <c r="AY21">
         <v>0</v>
       </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4328,8 +4391,11 @@
       <c r="AY22">
         <v>0</v>
       </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4483,8 +4549,11 @@
       <c r="AY23">
         <v>0</v>
       </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4638,8 +4707,11 @@
       <c r="AY24">
         <v>0</v>
       </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4791,6 +4863,9 @@
         <v>0</v>
       </c>
       <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
         <v>0</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Deaths.xlsx
@@ -901,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ25"/>
+  <dimension ref="A1:BA25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ25" sqref="AZ25"/>
+      <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BA25" sqref="BA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +919,7 @@
     <col min="44" max="44" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1076,8 +1076,11 @@
       <c r="AZ1" s="1">
         <v>43943</v>
       </c>
+      <c r="BA1" s="1">
+        <v>43944</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1234,8 +1237,11 @@
       <c r="AZ2">
         <v>5</v>
       </c>
+      <c r="BA2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1392,8 +1398,11 @@
       <c r="AZ3">
         <v>2</v>
       </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1550,8 +1559,11 @@
       <c r="AZ4">
         <v>0</v>
       </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1708,8 +1720,11 @@
       <c r="AZ5">
         <v>0</v>
       </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1866,8 +1881,11 @@
       <c r="AZ6">
         <v>0</v>
       </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2024,8 +2042,11 @@
       <c r="AZ7">
         <v>1</v>
       </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2182,8 +2203,11 @@
       <c r="AZ8">
         <v>0</v>
       </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2340,8 +2364,11 @@
       <c r="AZ9">
         <v>0</v>
       </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2498,8 +2525,11 @@
       <c r="AZ10">
         <v>0</v>
       </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2656,8 +2686,11 @@
       <c r="AZ11">
         <v>0</v>
       </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2814,8 +2847,11 @@
       <c r="AZ12">
         <v>0</v>
       </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2972,8 +3008,11 @@
       <c r="AZ13">
         <v>0</v>
       </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3130,8 +3169,11 @@
       <c r="AZ14">
         <v>0</v>
       </c>
+      <c r="BA14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3288,8 +3330,11 @@
       <c r="AZ15">
         <v>0</v>
       </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3446,8 +3491,11 @@
       <c r="AZ16">
         <v>0</v>
       </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3604,8 +3652,11 @@
       <c r="AZ17">
         <v>0</v>
       </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3762,8 +3813,11 @@
       <c r="AZ18">
         <v>0</v>
       </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3920,8 +3974,11 @@
       <c r="AZ19">
         <v>0</v>
       </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4078,8 +4135,11 @@
       <c r="AZ20">
         <v>0</v>
       </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4236,8 +4296,11 @@
       <c r="AZ21">
         <v>0</v>
       </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4394,8 +4457,11 @@
       <c r="AZ22">
         <v>0</v>
       </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4552,8 +4618,11 @@
       <c r="AZ23">
         <v>0</v>
       </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4710,8 +4779,11 @@
       <c r="AZ24">
         <v>0</v>
       </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4866,6 +4938,9 @@
         <v>0</v>
       </c>
       <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
         <v>0</v>
       </c>
     </row>
